--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDB1A76-23A9-E04E-A564-BF3251CABEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC2169-443F-A946-9EE6-B4A1BC84937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15820" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,167 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>QA Tester’s Log</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC Priority (High, Normal, Low)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Access to Chrome Browser</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>User Stories covered</t>
+  </si>
+  <si>
+    <t>Automation Status</t>
+  </si>
+  <si>
+    <t>Not Automated</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Site should open</t>
+  </si>
+  <si>
+    <t>TC-5401</t>
+  </si>
+  <si>
+    <t>Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Access to Internet</t>
+  </si>
+  <si>
+    <t>Email Account is registered</t>
+  </si>
+  <si>
+    <t>Email = guru99test@gmail.com</t>
+  </si>
+  <si>
+    <t>Navigate to http://demo.guru99.com/login</t>
+  </si>
+  <si>
+    <t>PE-54</t>
+  </si>
+  <si>
+    <t>Verify the user can log-in</t>
+  </si>
+  <si>
+    <t>Enter Email address</t>
+  </si>
+  <si>
+    <t>Field can be filled</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Click "Sign in"</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>TC-5402</t>
+  </si>
+  <si>
+    <t>Test the login function allows the user to be logged in</t>
+  </si>
+  <si>
+    <t>Test the login function denies a user with a wrong Email Address</t>
+  </si>
+  <si>
+    <t>Email = guru99wrong@gmail.com</t>
+  </si>
+  <si>
+    <t>Password is wrong</t>
+  </si>
+  <si>
+    <t>Password is correct</t>
+  </si>
+  <si>
+    <t>Password = df12@434c</t>
+  </si>
+  <si>
+    <t>Shows Message "User or Password are invalid. Please try again."</t>
+  </si>
+  <si>
+    <t>Test the login function denies a user with a wrong Password</t>
+  </si>
+  <si>
+    <t>Password = ab</t>
+  </si>
+  <si>
+    <t>Email Account is not registered</t>
+  </si>
+  <si>
+    <t>Verify the system denies the log-in when the user uses a wrong password</t>
+  </si>
+  <si>
+    <t>Verify the system desnies the log-in when the user uses a wrong email address</t>
+  </si>
+  <si>
+    <t>Test the block function after three failed log-in attempts</t>
+  </si>
+  <si>
+    <t>Shows Message "Your User has been blocked. Please select the option 'Blocked User?' to unblock</t>
+  </si>
+  <si>
+    <t>TC-5403</t>
+  </si>
+  <si>
+    <t>TC-5404</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +203,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -62,15 +289,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{49F38F20-D49F-6340-83B2-C0FF6D5C4FEA}"/>
+    <cellStyle name="Note 2" xfId="1" xr:uid="{275379D0-AD39-484A-9369-1268DDA9AEFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,12 +941,1038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="38">
+        <v>1</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
+        <v>2</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <v>4</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>1</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="20">
+        <v>2</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>3</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="20">
+        <v>3</v>
+      </c>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="38">
+        <v>1</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="38">
+        <v>2</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
+        <v>3</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="38">
+        <v>4</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="18">
+        <v>1</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
+        <v>2</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="20">
+        <v>2</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
+        <v>3</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="20">
+        <v>3</v>
+      </c>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="18">
+        <v>4</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A75" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="37"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="38">
+        <v>1</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="40"/>
+      <c r="D78" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="38">
+        <v>2</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="40"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="38">
+        <v>3</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="40"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="38">
+        <v>4</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="40"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
+        <v>1</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="20">
+        <v>1</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="18">
+        <v>2</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="20">
+        <v>2</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>3</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="20">
+        <v>3</v>
+      </c>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="18">
+        <v>4</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="28"/>
+    </row>
+    <row r="105" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="31"/>
+      <c r="D105" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="35"/>
+      <c r="D107" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="37"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="38">
+        <v>1</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="40"/>
+      <c r="D108" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="38">
+        <v>2</v>
+      </c>
+      <c r="B109" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="40"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="38">
+        <v>3</v>
+      </c>
+      <c r="B110" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="40"/>
+      <c r="D110" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="38">
+        <v>4</v>
+      </c>
+      <c r="B111" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="40"/>
+      <c r="D111" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="38">
+        <v>6</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="40"/>
+      <c r="D112" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="40"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="38">
+        <v>7</v>
+      </c>
+      <c r="B113" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="40"/>
+      <c r="D113" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="40"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="38">
+        <v>8</v>
+      </c>
+      <c r="B114" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="40"/>
+      <c r="D114" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="40"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="38">
+        <v>10</v>
+      </c>
+      <c r="B115" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="40"/>
+      <c r="D115" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="38">
+        <v>11</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="40"/>
+      <c r="D116" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="40"/>
+    </row>
+    <row r="117" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="38">
+        <v>12</v>
+      </c>
+      <c r="B117" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="40"/>
+      <c r="D117" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC2169-443F-A946-9EE6-B4A1BC84937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEF677-EDE6-4148-8A48-9E39BDAFCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>TC-5404</t>
+  </si>
+  <si>
+    <t>Click "User Blocked?"</t>
+  </si>
+  <si>
+    <t>Test the "User blocked?" Function</t>
+  </si>
+  <si>
+    <t>User is  sent to "Forgot your Password?" screen</t>
+  </si>
+  <si>
+    <t>Click Retrieve Password</t>
+  </si>
+  <si>
+    <t>"Retrieve Password" Function is activated</t>
+  </si>
+  <si>
+    <t>TC-5405</t>
+  </si>
+  <si>
+    <t>Verify the user can send a request to retrieve their password</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -941,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1906,12 +1930,380 @@
       </c>
       <c r="E117" s="40"/>
     </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="18">
+        <v>1</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="20">
+        <v>1</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="18">
+        <v>2</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="20">
+        <v>2</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="18">
+        <v>3</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="20">
+        <v>3</v>
+      </c>
+      <c r="E140" s="19"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="18">
+        <v>4</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="24"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="25"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="28"/>
+    </row>
+    <row r="145" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A145" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="31"/>
+      <c r="D145" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="35"/>
+      <c r="D147" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="37"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="38">
+        <v>1</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="40"/>
+      <c r="D148" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="40"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="38">
+        <v>2</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="40"/>
+      <c r="D149" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="40"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="38">
+        <v>3</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="40"/>
+      <c r="D150" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="40"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="38">
+        <v>4</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="40"/>
+      <c r="D151" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="40"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="38">
+        <v>6</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="40"/>
+      <c r="D152" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="40"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="38">
+        <v>7</v>
+      </c>
+      <c r="B153" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="40"/>
+      <c r="D153" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="40"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="38">
+        <v>8</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="40"/>
+      <c r="D154" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" s="40"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="38">
+        <v>10</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="40"/>
+      <c r="D155" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="40"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="38">
+        <v>11</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="40"/>
+      <c r="D156" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="40"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="38">
+        <v>12</v>
+      </c>
+      <c r="B157" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="40"/>
+      <c r="D157" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E157" s="40"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="38">
+        <v>13</v>
+      </c>
+      <c r="B158" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="40"/>
+      <c r="D158" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="40"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="38">
+        <v>14</v>
+      </c>
+      <c r="B159" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" s="40"/>
+      <c r="D159" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="40"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="38">
+        <v>15</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="40"/>
+      <c r="D160" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="95">
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="B115:C115"/>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEF677-EDE6-4148-8A48-9E39BDAFCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C78DD0-F657-164E-9D8A-36A723A65C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="73">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -213,16 +213,73 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>Tester: Jane Williams</t>
+  </si>
+  <si>
+    <t>Tester: Krivitzki, Matias</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,13 +342,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,12 +386,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,138 +633,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{49F38F20-D49F-6340-83B2-C0FF6D5C4FEA}"/>
-    <cellStyle name="Note 2" xfId="1" xr:uid="{275379D0-AD39-484A-9369-1268DDA9AEFC}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{49F38F20-D49F-6340-83B2-C0FF6D5C4FEA}"/>
+    <cellStyle name="Note 2" xfId="3" xr:uid="{275379D0-AD39-484A-9369-1268DDA9AEFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,7 +1144,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1159,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1185,36 @@
       <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="42"/>
+    </row>
+    <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1224,50 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1280,32 @@
       <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1059,8 +1318,32 @@
       <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -1073,8 +1356,32 @@
       <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -1085,8 +1392,32 @@
         <v>3</v>
       </c>
       <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>4</v>
       </c>
@@ -1094,7 +1425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
@@ -1104,15 +1435,39 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
@@ -1126,8 +1481,26 @@
       <c r="E15" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
@@ -1139,8 +1512,16 @@
         <v>18</v>
       </c>
       <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>1</v>
       </c>
@@ -1152,8 +1533,16 @@
         <v>19</v>
       </c>
       <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>2</v>
       </c>
@@ -1166,7 +1555,7 @@
       </c>
       <c r="E19" s="40"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <v>3</v>
       </c>
@@ -1179,7 +1568,7 @@
       </c>
       <c r="E20" s="40"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <v>4</v>
       </c>
@@ -1192,14 +1581,14 @@
       </c>
       <c r="E21" s="40"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1603,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1227,8 +1616,18 @@
       <c r="D33" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+    </row>
+    <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>4</v>
       </c>
@@ -1240,8 +1639,42 @@
       <c r="E34" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H34" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" s="42"/>
+    </row>
+    <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="44"/>
+      <c r="N35" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="44"/>
+    </row>
+    <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
@@ -1251,8 +1684,58 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H36" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N36" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H37" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1748,32 @@
       <c r="E38" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>1</v>
       </c>
@@ -1279,8 +1786,32 @@
       <c r="E39" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H39" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -1293,8 +1824,32 @@
       <c r="E40" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H40" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -1306,7 +1861,7 @@
       </c>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -1314,7 +1869,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O43" s="48"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>12</v>
       </c>
@@ -1324,15 +1897,31 @@
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+    </row>
+    <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1935,26 @@
       <c r="E46" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>16</v>
       </c>
@@ -1359,8 +1966,16 @@
         <v>18</v>
       </c>
       <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>1</v>
       </c>
@@ -1373,7 +1988,7 @@
       </c>
       <c r="E49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="38">
         <v>2</v>
       </c>
@@ -1386,7 +2001,7 @@
       </c>
       <c r="E50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="38">
         <v>3</v>
       </c>
@@ -1399,7 +2014,7 @@
       </c>
       <c r="E51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="38">
         <v>4</v>
       </c>
@@ -1412,14 +2027,14 @@
       </c>
       <c r="E52" s="40"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +2049,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +2063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>4</v>
       </c>
@@ -1460,8 +2075,36 @@
       <c r="E63" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H63" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+    </row>
+    <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O64" s="42"/>
+    </row>
+    <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>6</v>
       </c>
@@ -1471,8 +2114,50 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H65" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="44"/>
+      <c r="J65" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="44"/>
+      <c r="L65" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M65" s="44"/>
+      <c r="N65" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O65" s="44"/>
+    </row>
+    <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L66" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N66" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O66" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>8</v>
       </c>
@@ -1485,8 +2170,32 @@
       <c r="E67" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H67" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M67" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O67" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>1</v>
       </c>
@@ -1499,8 +2208,32 @@
       <c r="E68" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H68" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L68" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M68" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N68" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O68" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <v>2</v>
       </c>
@@ -1513,8 +2246,32 @@
       <c r="E69" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H69" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K69" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N69" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O69" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <v>3</v>
       </c>
@@ -1525,8 +2282,32 @@
         <v>3</v>
       </c>
       <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H70" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K70" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M70" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N70" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O70" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <v>4</v>
       </c>
@@ -1534,7 +2315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>12</v>
       </c>
@@ -1544,15 +2325,39 @@
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="24"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H73" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O73" s="48"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="28"/>
-    </row>
-    <row r="75" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+    </row>
+    <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>13</v>
       </c>
@@ -1566,8 +2371,26 @@
       <c r="E75" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
         <v>16</v>
       </c>
@@ -1579,8 +2402,16 @@
         <v>18</v>
       </c>
       <c r="E77" s="37"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="38">
         <v>1</v>
       </c>
@@ -1592,8 +2423,16 @@
         <v>19</v>
       </c>
       <c r="E78" s="40"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="38">
         <v>2</v>
       </c>
@@ -1606,7 +2445,7 @@
       </c>
       <c r="E79" s="40"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="38">
         <v>3</v>
       </c>
@@ -1619,7 +2458,7 @@
       </c>
       <c r="E80" s="40"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="38">
         <v>4</v>
       </c>
@@ -1632,14 +2471,14 @@
       </c>
       <c r="E81" s="40"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +2493,7 @@
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -1667,8 +2506,18 @@
       <c r="D92" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H92" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+    </row>
+    <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>4</v>
       </c>
@@ -1680,8 +2529,42 @@
       <c r="E93" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H93" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O93" s="42"/>
+    </row>
+    <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="44"/>
+      <c r="J94" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K94" s="44"/>
+      <c r="L94" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="44"/>
+      <c r="N94" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O94" s="44"/>
+    </row>
+    <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>6</v>
       </c>
@@ -1691,8 +2574,58 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H95" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J95" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L95" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M95" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N95" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O95" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H96" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L96" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M96" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N96" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O96" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>8</v>
       </c>
@@ -1705,8 +2638,32 @@
       <c r="E97" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H97" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I97" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J97" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K97" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L97" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M97" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N97" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O97" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <v>1</v>
       </c>
@@ -1719,8 +2676,32 @@
       <c r="E98" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H98" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J98" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L98" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M98" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N98" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O98" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>2</v>
       </c>
@@ -1733,8 +2714,32 @@
       <c r="E99" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H99" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J99" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K99" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L99" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M99" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N99" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O99" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>3</v>
       </c>
@@ -1745,16 +2750,90 @@
         <v>3</v>
       </c>
       <c r="E100" s="19"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H100" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K100" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L100" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M100" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N100" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O100" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <v>4</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H101" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K101" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L101" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M101" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N101" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O101" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H102" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J102" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K102" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L102" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M102" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N102" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O102" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
         <v>12</v>
       </c>
@@ -1764,15 +2843,63 @@
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="24"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H103" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J103" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K103" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L103" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M103" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N103" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O103" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="28"/>
-    </row>
-    <row r="105" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H104" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J104" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K104" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L104" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M104" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N104" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O104" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="29" t="s">
         <v>13</v>
       </c>
@@ -1786,8 +2913,58 @@
       <c r="E105" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H105" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J105" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K105" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L105" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M105" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N105" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O105" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H106" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K106" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L106" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M106" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N106" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O106" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
         <v>16</v>
       </c>
@@ -1799,8 +2976,32 @@
         <v>18</v>
       </c>
       <c r="E107" s="37"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H107" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J107" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K107" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L107" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M107" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N107" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O107" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="38">
         <v>1</v>
       </c>
@@ -1813,7 +3014,7 @@
       </c>
       <c r="E108" s="40"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="38">
         <v>2</v>
       </c>
@@ -1826,7 +3027,7 @@
       </c>
       <c r="E109" s="40"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="38">
         <v>3</v>
       </c>
@@ -1838,8 +3039,24 @@
         <v>30</v>
       </c>
       <c r="E110" s="40"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H110" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O110" s="48"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="38">
         <v>4</v>
       </c>
@@ -1851,8 +3068,16 @@
         <v>41</v>
       </c>
       <c r="E111" s="40"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="38">
         <v>6</v>
       </c>
@@ -1864,8 +3089,16 @@
         <v>30</v>
       </c>
       <c r="E112" s="40"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="38">
         <v>7</v>
       </c>
@@ -1877,8 +3110,16 @@
         <v>30</v>
       </c>
       <c r="E113" s="40"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="38">
         <v>8</v>
       </c>
@@ -1890,8 +3131,16 @@
         <v>41</v>
       </c>
       <c r="E114" s="40"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="38">
         <v>10</v>
       </c>
@@ -1903,8 +3152,16 @@
         <v>30</v>
       </c>
       <c r="E115" s="40"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="38">
         <v>11</v>
       </c>
@@ -1917,7 +3174,7 @@
       </c>
       <c r="E116" s="40"/>
     </row>
-    <row r="117" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38">
         <v>12</v>
       </c>
@@ -1930,14 +3187,14 @@
       </c>
       <c r="E117" s="40"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
       <c r="D126" s="41"/>
       <c r="E126" s="41"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +3209,7 @@
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
@@ -1965,8 +3222,18 @@
       <c r="D132" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H132" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+    </row>
+    <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>4</v>
       </c>
@@ -1978,8 +3245,42 @@
       <c r="E133" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H133" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O133" s="42"/>
+    </row>
+    <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I134" s="44"/>
+      <c r="J134" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K134" s="44"/>
+      <c r="L134" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M134" s="44"/>
+      <c r="N134" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O134" s="44"/>
+    </row>
+    <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>6</v>
       </c>
@@ -1989,8 +3290,58 @@
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H135" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J135" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K135" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M135" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N135" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O135" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H136" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J136" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K136" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L136" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M136" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N136" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O136" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>8</v>
       </c>
@@ -2003,8 +3354,32 @@
       <c r="E137" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H137" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J137" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K137" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L137" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M137" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N137" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O137" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <v>1</v>
       </c>
@@ -2017,8 +3392,32 @@
       <c r="E138" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H138" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K138" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L138" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M138" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N138" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O138" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <v>2</v>
       </c>
@@ -2031,8 +3430,32 @@
       <c r="E139" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H139" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J139" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K139" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L139" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M139" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N139" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O139" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <v>3</v>
       </c>
@@ -2043,16 +3466,90 @@
         <v>3</v>
       </c>
       <c r="E140" s="19"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H140" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I140" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J140" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K140" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L140" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M140" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N140" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O140" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <v>4</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H141" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J141" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K141" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L141" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M141" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N141" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O141" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H142" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J142" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K142" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L142" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M142" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N142" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O142" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
         <v>12</v>
       </c>
@@ -2062,15 +3559,63 @@
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="24"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H143" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I143" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J143" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K143" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L143" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M143" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N143" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O143" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="B144" s="26"/>
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
       <c r="E144" s="28"/>
-    </row>
-    <row r="145" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="H144" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I144" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J144" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K144" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L144" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M144" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N144" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O144" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A145" s="29" t="s">
         <v>13</v>
       </c>
@@ -2084,8 +3629,58 @@
       <c r="E145" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H145" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J145" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K145" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L145" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M145" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N145" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O145" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H146" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I146" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J146" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K146" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L146" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M146" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N146" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O146" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
         <v>16</v>
       </c>
@@ -2097,8 +3692,32 @@
         <v>18</v>
       </c>
       <c r="E147" s="37"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H147" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I147" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J147" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K147" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L147" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M147" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N147" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O147" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="38">
         <v>1</v>
       </c>
@@ -2110,8 +3729,32 @@
         <v>19</v>
       </c>
       <c r="E148" s="40"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H148" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I148" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J148" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K148" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L148" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M148" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N148" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O148" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="38">
         <v>2</v>
       </c>
@@ -2123,8 +3766,32 @@
         <v>30</v>
       </c>
       <c r="E149" s="40"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H149" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I149" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J149" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K149" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L149" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M149" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N149" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O149" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="38">
         <v>3</v>
       </c>
@@ -2137,7 +3804,7 @@
       </c>
       <c r="E150" s="40"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="38">
         <v>4</v>
       </c>
@@ -2150,7 +3817,7 @@
       </c>
       <c r="E151" s="40"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="38">
         <v>6</v>
       </c>
@@ -2163,7 +3830,7 @@
       </c>
       <c r="E152" s="40"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="38">
         <v>7</v>
       </c>
@@ -2176,7 +3843,7 @@
       </c>
       <c r="E153" s="40"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="38">
         <v>8</v>
       </c>
@@ -2189,7 +3856,7 @@
       </c>
       <c r="E154" s="40"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="38">
         <v>10</v>
       </c>
@@ -2202,7 +3869,7 @@
       </c>
       <c r="E155" s="40"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="38">
         <v>11</v>
       </c>
@@ -2215,7 +3882,7 @@
       </c>
       <c r="E156" s="40"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="38">
         <v>12</v>
       </c>
@@ -2228,7 +3895,7 @@
       </c>
       <c r="E157" s="40"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="38">
         <v>13</v>
       </c>
@@ -2241,7 +3908,7 @@
       </c>
       <c r="E158" s="40"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="38">
         <v>14</v>
       </c>
@@ -2254,7 +3921,7 @@
       </c>
       <c r="E159" s="40"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="38">
         <v>15</v>
       </c>
@@ -2267,8 +3934,241 @@
       </c>
       <c r="E160" s="40"/>
     </row>
+    <row r="161" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H161" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O161" s="48"/>
+    </row>
+    <row r="162" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
+      <c r="J162" s="49"/>
+      <c r="K162" s="49"/>
+      <c r="L162" s="49"/>
+      <c r="M162" s="49"/>
+      <c r="N162" s="49"/>
+      <c r="O162" s="49"/>
+    </row>
+    <row r="163" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H163" s="49"/>
+      <c r="I163" s="49"/>
+      <c r="J163" s="49"/>
+      <c r="K163" s="49"/>
+      <c r="L163" s="49"/>
+      <c r="M163" s="49"/>
+      <c r="N163" s="49"/>
+      <c r="O163" s="49"/>
+    </row>
+    <row r="164" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H164" s="49"/>
+      <c r="I164" s="49"/>
+      <c r="J164" s="49"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="49"/>
+      <c r="M164" s="49"/>
+      <c r="N164" s="49"/>
+      <c r="O164" s="49"/>
+    </row>
+    <row r="165" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="49"/>
+      <c r="M165" s="49"/>
+      <c r="N165" s="49"/>
+      <c r="O165" s="49"/>
+    </row>
+    <row r="166" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H166" s="49"/>
+      <c r="I166" s="49"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="49"/>
+      <c r="M166" s="49"/>
+      <c r="N166" s="49"/>
+      <c r="O166" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="260">
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:M165"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="H132:O132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="B159:C159"/>
     <mergeCell ref="D159:E159"/>
     <mergeCell ref="B160:C160"/>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D231B-0F96-EE48-9622-DA26740AD75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D69B8A-112B-9742-952E-B12FA0C34A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
@@ -755,68 +755,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="75" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:O18"/>
     </sheetView>
   </sheetViews>
@@ -1160,10 +1160,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1191,34 +1191,34 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31" t="s">
+      <c r="M4" s="49"/>
+      <c r="N4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1230,22 +1230,22 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="32" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H6" s="26" t="s">
@@ -1432,46 +1432,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="H13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
+      <c r="I13" s="46"/>
+      <c r="J13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30" t="s">
+      <c r="M13" s="46"/>
+      <c r="N13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -1487,105 +1487,105 @@
       <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="E17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="E18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
@@ -1604,10 +1604,10 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1622,16 +1622,16 @@
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1645,40 +1645,40 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31" t="s">
+      <c r="I34" s="49"/>
+      <c r="J34" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31" t="s">
+      <c r="K34" s="49"/>
+      <c r="L34" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31" t="s">
+      <c r="M34" s="49"/>
+      <c r="N34" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="31"/>
+      <c r="O34" s="49"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="32" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="32" t="s">
+      <c r="K35" s="48"/>
+      <c r="L35" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="32" t="s">
+      <c r="M35" s="48"/>
+      <c r="N35" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="33"/>
+      <c r="O35" s="48"/>
     </row>
     <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1876,56 +1876,56 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30" t="s">
+      <c r="I43" s="46"/>
+      <c r="J43" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30" t="s">
+      <c r="K43" s="46"/>
+      <c r="L43" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30" t="s">
+      <c r="M43" s="46"/>
+      <c r="N43" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="30"/>
+      <c r="O43" s="46"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -1941,97 +1941,97 @@
       <c r="E46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
+      <c r="E48" s="42"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="34" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="35"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="34" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="34" t="s">
+      <c r="C52" s="44"/>
+      <c r="D52" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="35"/>
+      <c r="E52" s="44"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
@@ -2050,10 +2050,10 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="30"/>
     </row>
     <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2081,34 +2081,34 @@
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
     </row>
     <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31" t="s">
+      <c r="I64" s="49"/>
+      <c r="J64" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31" t="s">
+      <c r="K64" s="49"/>
+      <c r="L64" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31" t="s">
+      <c r="M64" s="49"/>
+      <c r="N64" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="31"/>
+      <c r="O64" s="49"/>
     </row>
     <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2120,22 +2120,22 @@
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
-      <c r="H65" s="32" t="s">
+      <c r="H65" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="32" t="s">
+      <c r="I65" s="48"/>
+      <c r="J65" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="33"/>
-      <c r="L65" s="32" t="s">
+      <c r="K65" s="48"/>
+      <c r="L65" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="32" t="s">
+      <c r="M65" s="48"/>
+      <c r="N65" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O65" s="33"/>
+      <c r="O65" s="48"/>
     </row>
     <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H66" s="26" t="s">
@@ -2322,46 +2322,46 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="H73" s="30" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+      <c r="H73" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30" t="s">
+      <c r="I73" s="46"/>
+      <c r="J73" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30" t="s">
+      <c r="K73" s="46"/>
+      <c r="L73" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30" t="s">
+      <c r="M73" s="46"/>
+      <c r="N73" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="30"/>
+      <c r="O73" s="46"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -2377,105 +2377,105 @@
       <c r="E75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="38" t="s">
+      <c r="C77" s="40"/>
+      <c r="D77" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="39"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
+      <c r="E77" s="42"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="34" t="s">
+      <c r="C78" s="44"/>
+      <c r="D78" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="35"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
+      <c r="E78" s="44"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>2</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="34" t="s">
+      <c r="C79" s="44"/>
+      <c r="D79" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="35"/>
+      <c r="E79" s="44"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>3</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="34" t="s">
+      <c r="C80" s="44"/>
+      <c r="D80" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="35"/>
+      <c r="E80" s="44"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="34" t="s">
+      <c r="C81" s="44"/>
+      <c r="D81" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="35"/>
+      <c r="E81" s="44"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
@@ -2499,10 +2499,10 @@
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="41"/>
+      <c r="E91" s="30"/>
     </row>
     <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2517,16 +2517,16 @@
       <c r="D92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
     </row>
     <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -2540,40 +2540,40 @@
       <c r="E93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31" t="s">
+      <c r="I93" s="49"/>
+      <c r="J93" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31" t="s">
+      <c r="K93" s="49"/>
+      <c r="L93" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31" t="s">
+      <c r="M93" s="49"/>
+      <c r="N93" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="31"/>
+      <c r="O93" s="49"/>
     </row>
     <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="32" t="s">
+      <c r="H94" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="32" t="s">
+      <c r="I94" s="48"/>
+      <c r="J94" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="33"/>
-      <c r="L94" s="32" t="s">
+      <c r="K94" s="48"/>
+      <c r="L94" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="33"/>
-      <c r="N94" s="32" t="s">
+      <c r="M94" s="48"/>
+      <c r="N94" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O94" s="33"/>
+      <c r="O94" s="48"/>
     </row>
     <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -2845,15 +2845,15 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
       <c r="H103" s="27" t="s">
         <v>68</v>
       </c>
@@ -2880,11 +2880,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
       <c r="H104" s="27" t="s">
         <v>68</v>
       </c>
@@ -2979,14 +2979,14 @@
       <c r="A107" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="38" t="s">
+      <c r="C107" s="40"/>
+      <c r="D107" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="39"/>
+      <c r="E107" s="42"/>
       <c r="H107" s="27" t="s">
         <v>68</v>
       </c>
@@ -3016,187 +3016,187 @@
       <c r="A108" s="24">
         <v>1</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="34" t="s">
+      <c r="C108" s="44"/>
+      <c r="D108" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="35"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>2</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="34" t="s">
+      <c r="C109" s="44"/>
+      <c r="D109" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="35"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>3</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="34" t="s">
+      <c r="C110" s="44"/>
+      <c r="D110" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="35"/>
-      <c r="H110" s="30" t="s">
+      <c r="E110" s="44"/>
+      <c r="H110" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30" t="s">
+      <c r="I110" s="46"/>
+      <c r="J110" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30" t="s">
+      <c r="K110" s="46"/>
+      <c r="L110" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M110" s="30"/>
-      <c r="N110" s="30" t="s">
+      <c r="M110" s="46"/>
+      <c r="N110" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="30"/>
+      <c r="O110" s="46"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>4</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="34" t="s">
+      <c r="C111" s="44"/>
+      <c r="D111" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E111" s="35"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
+      <c r="E111" s="44"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>6</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="34" t="s">
+      <c r="C112" s="44"/>
+      <c r="D112" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="35"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
+      <c r="E112" s="44"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>7</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="34" t="s">
+      <c r="C113" s="44"/>
+      <c r="D113" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="35"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
+      <c r="E113" s="44"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="45"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>8</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="34" t="s">
+      <c r="C114" s="44"/>
+      <c r="D114" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="35"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
+      <c r="E114" s="44"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="45"/>
+      <c r="N114" s="45"/>
+      <c r="O114" s="45"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>10</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="34" t="s">
+      <c r="C115" s="44"/>
+      <c r="D115" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="35"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
+      <c r="E115" s="44"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="45"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>11</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="34" t="s">
+      <c r="C116" s="44"/>
+      <c r="D116" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="35"/>
+      <c r="E116" s="44"/>
     </row>
     <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>12</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="34" t="s">
+      <c r="C117" s="44"/>
+      <c r="D117" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="35"/>
+      <c r="E117" s="44"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
@@ -3215,10 +3215,10 @@
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D131" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E131" s="41"/>
+      <c r="E131" s="30"/>
     </row>
     <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3233,16 +3233,16 @@
       <c r="D132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="31" t="s">
+      <c r="H132" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-      <c r="N132" s="31"/>
-      <c r="O132" s="31"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="49"/>
+      <c r="K132" s="49"/>
+      <c r="L132" s="49"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="49"/>
+      <c r="O132" s="49"/>
     </row>
     <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -3256,40 +3256,40 @@
       <c r="E133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="31" t="s">
+      <c r="H133" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31" t="s">
+      <c r="I133" s="49"/>
+      <c r="J133" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31" t="s">
+      <c r="K133" s="49"/>
+      <c r="L133" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31" t="s">
+      <c r="M133" s="49"/>
+      <c r="N133" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="31"/>
+      <c r="O133" s="49"/>
     </row>
     <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I134" s="33"/>
-      <c r="J134" s="32" t="s">
+      <c r="I134" s="48"/>
+      <c r="J134" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K134" s="33"/>
-      <c r="L134" s="32" t="s">
+      <c r="K134" s="48"/>
+      <c r="L134" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M134" s="33"/>
-      <c r="N134" s="32" t="s">
+      <c r="M134" s="48"/>
+      <c r="N134" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="33"/>
+      <c r="O134" s="48"/>
     </row>
     <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
@@ -3561,15 +3561,15 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="46"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="35"/>
       <c r="H143" s="27" t="s">
         <v>68</v>
       </c>
@@ -3596,11 +3596,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="49"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="38"/>
       <c r="H144" s="27" t="s">
         <v>68</v>
       </c>
@@ -3695,14 +3695,14 @@
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="37"/>
-      <c r="D147" s="38" t="s">
+      <c r="C147" s="40"/>
+      <c r="D147" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="39"/>
+      <c r="E147" s="42"/>
       <c r="H147" s="27" t="s">
         <v>68</v>
       </c>
@@ -3732,14 +3732,14 @@
       <c r="A148" s="24">
         <v>1</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="34" t="s">
+      <c r="C148" s="44"/>
+      <c r="D148" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="35"/>
+      <c r="E148" s="44"/>
       <c r="H148" s="27" t="s">
         <v>68</v>
       </c>
@@ -3769,14 +3769,14 @@
       <c r="A149" s="24">
         <v>2</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="34" t="s">
+      <c r="C149" s="44"/>
+      <c r="D149" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="35"/>
+      <c r="E149" s="44"/>
       <c r="H149" s="27" t="s">
         <v>68</v>
       </c>
@@ -3806,331 +3806,318 @@
       <c r="A150" s="24">
         <v>3</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="34" t="s">
+      <c r="C150" s="44"/>
+      <c r="D150" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="35"/>
+      <c r="E150" s="44"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>4</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="35"/>
-      <c r="D151" s="34" t="s">
+      <c r="C151" s="44"/>
+      <c r="D151" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="35"/>
+      <c r="E151" s="44"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>6</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="35"/>
-      <c r="D152" s="34" t="s">
+      <c r="C152" s="44"/>
+      <c r="D152" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="35"/>
-      <c r="H152" s="30" t="s">
+      <c r="E152" s="44"/>
+      <c r="H152" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="30"/>
-      <c r="J152" s="30" t="s">
+      <c r="I152" s="46"/>
+      <c r="J152" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K152" s="30"/>
-      <c r="L152" s="30" t="s">
+      <c r="K152" s="46"/>
+      <c r="L152" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M152" s="30"/>
-      <c r="N152" s="30" t="s">
+      <c r="M152" s="46"/>
+      <c r="N152" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="30"/>
+      <c r="O152" s="46"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>7</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="34" t="s">
+      <c r="C153" s="44"/>
+      <c r="D153" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="35"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
+      <c r="E153" s="44"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="45"/>
+      <c r="N153" s="45"/>
+      <c r="O153" s="45"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>8</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="34" t="s">
+      <c r="C154" s="44"/>
+      <c r="D154" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="35"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
+      <c r="E154" s="44"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
+      <c r="L154" s="45"/>
+      <c r="M154" s="45"/>
+      <c r="N154" s="45"/>
+      <c r="O154" s="45"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>10</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="34" t="s">
+      <c r="C155" s="44"/>
+      <c r="D155" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="35"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
+      <c r="E155" s="44"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="45"/>
+      <c r="N155" s="45"/>
+      <c r="O155" s="45"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>11</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="34" t="s">
+      <c r="C156" s="44"/>
+      <c r="D156" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="35"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
+      <c r="E156" s="44"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45"/>
+      <c r="K156" s="45"/>
+      <c r="L156" s="45"/>
+      <c r="M156" s="45"/>
+      <c r="N156" s="45"/>
+      <c r="O156" s="45"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>12</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="34" t="s">
+      <c r="C157" s="44"/>
+      <c r="D157" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="35"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
+      <c r="E157" s="44"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="45"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>13</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="34" t="s">
+      <c r="C158" s="44"/>
+      <c r="D158" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="35"/>
+      <c r="E158" s="44"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>14</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="34" t="s">
+      <c r="C159" s="44"/>
+      <c r="D159" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="35"/>
+      <c r="E159" s="44"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>15</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="35"/>
-      <c r="D160" s="34" t="s">
+      <c r="C160" s="44"/>
+      <c r="D160" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E160" s="35"/>
+      <c r="E160" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E74"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:E104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:E144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="H132:O132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
@@ -4148,121 +4135,134 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="H92:O92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="H132:O132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D69B8A-112B-9742-952E-B12FA0C34A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBA0CA-CE2C-AE4C-8B35-69054AAF7A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="83">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>Password = sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email = sample@example.com </t>
+  </si>
+  <si>
+    <t>EJECUTADO MANUALMENTE - FUNCIONA CORRECTAMENTE</t>
+  </si>
+  <si>
+    <t>Click "Submit"</t>
+  </si>
+  <si>
+    <t>Shows Message "Invalid UserId / Password."</t>
+  </si>
+  <si>
+    <t>Shows Message "Invalid UserId / Password"</t>
+  </si>
+  <si>
+    <t>Not Expected</t>
+  </si>
+  <si>
+    <t>EJECUTADO MANUALMENTE - NO BLOQUEA AL USUARIO</t>
   </si>
 </sst>
 </file>
@@ -673,7 +697,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -755,6 +779,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -785,38 +842,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1138,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:O18"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,10 +1190,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1191,34 +1221,34 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1229,23 +1259,25 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="H5" s="47" t="s">
+      <c r="E5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="48"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H6" s="26" t="s">
@@ -1322,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>68</v>
@@ -1360,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>68</v>
@@ -1432,46 +1464,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="H13" s="46" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="H13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46" t="s">
+      <c r="K13" s="30"/>
+      <c r="L13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46" t="s">
+      <c r="M13" s="30"/>
+      <c r="N13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="46"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -1487,105 +1519,105 @@
       <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="E18" s="35"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
@@ -1604,10 +1636,10 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1622,16 +1654,16 @@
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1645,40 +1677,40 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49" t="s">
+      <c r="K34" s="31"/>
+      <c r="L34" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49" t="s">
+      <c r="M34" s="31"/>
+      <c r="N34" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="49"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="47" t="s">
+      <c r="H35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="47" t="s">
+      <c r="I35" s="33"/>
+      <c r="J35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="47" t="s">
+      <c r="K35" s="33"/>
+      <c r="L35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="48"/>
-      <c r="N35" s="47" t="s">
+      <c r="M35" s="33"/>
+      <c r="N35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="48"/>
+      <c r="O35" s="33"/>
     </row>
     <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1689,7 +1721,9 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="H36" s="26" t="s">
         <v>66</v>
       </c>
@@ -1876,56 +1910,56 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46" t="s">
+      <c r="I43" s="30"/>
+      <c r="J43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46" t="s">
+      <c r="K43" s="30"/>
+      <c r="L43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46" t="s">
+      <c r="M43" s="30"/>
+      <c r="N43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="46"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -1941,97 +1975,97 @@
       <c r="E46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41" t="s">
+      <c r="C48" s="37"/>
+      <c r="D48" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
+      <c r="E48" s="39"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="43" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="35"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="43" t="s">
+      <c r="C50" s="35"/>
+      <c r="D50" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="44"/>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="43" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="44"/>
+      <c r="B52" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="35"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
@@ -2050,10 +2084,10 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="30"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2081,34 +2115,34 @@
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49" t="s">
+      <c r="I64" s="31"/>
+      <c r="J64" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49" t="s">
+      <c r="K64" s="31"/>
+      <c r="L64" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49" t="s">
+      <c r="M64" s="31"/>
+      <c r="N64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="49"/>
+      <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2119,23 +2153,25 @@
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="H65" s="47" t="s">
+      <c r="E65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="47" t="s">
+      <c r="I65" s="33"/>
+      <c r="J65" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="48"/>
-      <c r="L65" s="47" t="s">
+      <c r="K65" s="33"/>
+      <c r="L65" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="48"/>
-      <c r="N65" s="47" t="s">
+      <c r="M65" s="33"/>
+      <c r="N65" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O65" s="48"/>
+      <c r="O65" s="33"/>
     </row>
     <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H66" s="26" t="s">
@@ -2292,7 +2328,7 @@
         <v>68</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J70" s="27" t="s">
         <v>68</v>
@@ -2322,46 +2358,46 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="H73" s="46" t="s">
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
+      <c r="H73" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46" t="s">
+      <c r="I73" s="30"/>
+      <c r="J73" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46" t="s">
+      <c r="K73" s="30"/>
+      <c r="L73" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46" t="s">
+      <c r="M73" s="30"/>
+      <c r="N73" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="46"/>
+      <c r="O73" s="30"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -2377,105 +2413,105 @@
       <c r="E75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="41" t="s">
+      <c r="C77" s="37"/>
+      <c r="D77" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+      <c r="E77" s="39"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="43" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="44"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
+      <c r="E78" s="35"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>2</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="43" t="s">
+      <c r="C79" s="35"/>
+      <c r="D79" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="44"/>
+      <c r="E79" s="35"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>3</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="43" t="s">
+      <c r="C80" s="35"/>
+      <c r="D80" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="35"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="44"/>
+      <c r="B81" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="35"/>
+      <c r="D81" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="35"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
@@ -2499,10 +2535,10 @@
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="30"/>
+      <c r="E91" s="41"/>
     </row>
     <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2517,16 +2553,16 @@
       <c r="D92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="49" t="s">
+      <c r="H92" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="49"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
     </row>
     <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -2540,40 +2576,40 @@
       <c r="E93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="49" t="s">
+      <c r="H93" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49" t="s">
+      <c r="I93" s="31"/>
+      <c r="J93" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49" t="s">
+      <c r="K93" s="31"/>
+      <c r="L93" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49" t="s">
+      <c r="M93" s="31"/>
+      <c r="N93" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="49"/>
+      <c r="O93" s="31"/>
     </row>
     <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="47" t="s">
+      <c r="H94" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="48"/>
-      <c r="J94" s="47" t="s">
+      <c r="I94" s="33"/>
+      <c r="J94" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="48"/>
-      <c r="L94" s="47" t="s">
+      <c r="K94" s="33"/>
+      <c r="L94" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="48"/>
-      <c r="N94" s="47" t="s">
+      <c r="M94" s="33"/>
+      <c r="N94" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O94" s="48"/>
+      <c r="O94" s="33"/>
     </row>
     <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -2584,7 +2620,9 @@
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="E95" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="H95" s="26" t="s">
         <v>66</v>
       </c>
@@ -2845,15 +2883,15 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="35"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
       <c r="H103" s="27" t="s">
         <v>68</v>
       </c>
@@ -2880,11 +2918,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="38"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="49"/>
       <c r="H104" s="27" t="s">
         <v>68</v>
       </c>
@@ -2979,18 +3017,18 @@
       <c r="A107" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="D107" s="41" t="s">
+      <c r="C107" s="37"/>
+      <c r="D107" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="42"/>
-      <c r="H107" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I107" s="28" t="s">
+      <c r="E107" s="39"/>
+      <c r="H107" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I107" s="51" t="s">
         <v>71</v>
       </c>
       <c r="J107" s="27" t="s">
@@ -3016,187 +3054,187 @@
       <c r="A108" s="24">
         <v>1</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="43" t="s">
+      <c r="C108" s="35"/>
+      <c r="D108" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="44"/>
+      <c r="E108" s="35"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>2</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="44"/>
-      <c r="D109" s="43" t="s">
+      <c r="C109" s="35"/>
+      <c r="D109" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="44"/>
+      <c r="E109" s="35"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>3</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="44"/>
-      <c r="D110" s="43" t="s">
+      <c r="C110" s="35"/>
+      <c r="D110" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="44"/>
-      <c r="H110" s="46" t="s">
+      <c r="E110" s="35"/>
+      <c r="H110" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46" t="s">
+      <c r="I110" s="30"/>
+      <c r="J110" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46" t="s">
+      <c r="K110" s="30"/>
+      <c r="L110" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46" t="s">
+      <c r="M110" s="30"/>
+      <c r="N110" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="46"/>
+      <c r="O110" s="30"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>4</v>
       </c>
-      <c r="B111" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="44"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
-      <c r="O111" s="45"/>
+      <c r="B111" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="35"/>
+      <c r="D111" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="35"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>6</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="43" t="s">
+      <c r="C112" s="35"/>
+      <c r="D112" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="44"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="45"/>
-      <c r="N112" s="45"/>
-      <c r="O112" s="45"/>
+      <c r="E112" s="35"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>7</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="44"/>
-      <c r="D113" s="43" t="s">
+      <c r="C113" s="35"/>
+      <c r="D113" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="44"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="45"/>
+      <c r="E113" s="35"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>8</v>
       </c>
-      <c r="B114" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C114" s="44"/>
-      <c r="D114" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="44"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="45"/>
-      <c r="O114" s="45"/>
+      <c r="B114" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="35"/>
+      <c r="D114" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E114" s="35"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>10</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="43" t="s">
+      <c r="C115" s="35"/>
+      <c r="D115" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="44"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="45"/>
-      <c r="O115" s="45"/>
+      <c r="E115" s="35"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>11</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B116" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="43" t="s">
+      <c r="C116" s="35"/>
+      <c r="D116" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="44"/>
+      <c r="E116" s="35"/>
     </row>
     <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>12</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="43" t="s">
+      <c r="B117" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="35"/>
+      <c r="D117" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="44"/>
+      <c r="E117" s="35"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
@@ -3215,10 +3253,10 @@
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E131" s="30"/>
+      <c r="E131" s="41"/>
     </row>
     <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3233,16 +3271,16 @@
       <c r="D132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="49" t="s">
+      <c r="H132" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I132" s="49"/>
-      <c r="J132" s="49"/>
-      <c r="K132" s="49"/>
-      <c r="L132" s="49"/>
-      <c r="M132" s="49"/>
-      <c r="N132" s="49"/>
-      <c r="O132" s="49"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
+      <c r="L132" s="31"/>
+      <c r="M132" s="31"/>
+      <c r="N132" s="31"/>
+      <c r="O132" s="31"/>
     </row>
     <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -3256,40 +3294,40 @@
       <c r="E133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="49" t="s">
+      <c r="H133" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="49"/>
-      <c r="J133" s="49" t="s">
+      <c r="I133" s="31"/>
+      <c r="J133" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K133" s="49"/>
-      <c r="L133" s="49" t="s">
+      <c r="K133" s="31"/>
+      <c r="L133" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="49"/>
-      <c r="N133" s="49" t="s">
+      <c r="M133" s="31"/>
+      <c r="N133" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="49"/>
+      <c r="O133" s="31"/>
     </row>
     <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="47" t="s">
+      <c r="H134" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I134" s="48"/>
-      <c r="J134" s="47" t="s">
+      <c r="I134" s="33"/>
+      <c r="J134" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K134" s="48"/>
-      <c r="L134" s="47" t="s">
+      <c r="K134" s="33"/>
+      <c r="L134" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M134" s="48"/>
-      <c r="N134" s="47" t="s">
+      <c r="M134" s="33"/>
+      <c r="N134" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="48"/>
+      <c r="O134" s="33"/>
     </row>
     <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
@@ -3561,15 +3599,15 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="35"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="46"/>
       <c r="H143" s="27" t="s">
         <v>68</v>
       </c>
@@ -3596,11 +3634,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="38"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="49"/>
       <c r="H144" s="27" t="s">
         <v>68</v>
       </c>
@@ -3695,14 +3733,14 @@
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="40"/>
-      <c r="D147" s="41" t="s">
+      <c r="C147" s="37"/>
+      <c r="D147" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="42"/>
+      <c r="E147" s="39"/>
       <c r="H147" s="27" t="s">
         <v>68</v>
       </c>
@@ -3732,14 +3770,14 @@
       <c r="A148" s="24">
         <v>1</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="44"/>
-      <c r="D148" s="43" t="s">
+      <c r="C148" s="35"/>
+      <c r="D148" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="44"/>
+      <c r="E148" s="35"/>
       <c r="H148" s="27" t="s">
         <v>68</v>
       </c>
@@ -3769,14 +3807,14 @@
       <c r="A149" s="24">
         <v>2</v>
       </c>
-      <c r="B149" s="43" t="s">
+      <c r="B149" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="44"/>
-      <c r="D149" s="43" t="s">
+      <c r="C149" s="35"/>
+      <c r="D149" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="44"/>
+      <c r="E149" s="35"/>
       <c r="H149" s="27" t="s">
         <v>68</v>
       </c>
@@ -3806,219 +3844,430 @@
       <c r="A150" s="24">
         <v>3</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="44"/>
-      <c r="D150" s="43" t="s">
+      <c r="C150" s="35"/>
+      <c r="D150" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="44"/>
+      <c r="E150" s="35"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>4</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="44"/>
-      <c r="D151" s="43" t="s">
+      <c r="C151" s="35"/>
+      <c r="D151" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="44"/>
+      <c r="E151" s="35"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>6</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="44"/>
-      <c r="D152" s="43" t="s">
+      <c r="C152" s="35"/>
+      <c r="D152" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="44"/>
-      <c r="H152" s="46" t="s">
+      <c r="E152" s="35"/>
+      <c r="H152" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="46"/>
-      <c r="J152" s="46" t="s">
+      <c r="I152" s="30"/>
+      <c r="J152" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K152" s="46"/>
-      <c r="L152" s="46" t="s">
+      <c r="K152" s="30"/>
+      <c r="L152" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46" t="s">
+      <c r="M152" s="30"/>
+      <c r="N152" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="46"/>
+      <c r="O152" s="30"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>7</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="44"/>
-      <c r="D153" s="43" t="s">
+      <c r="C153" s="35"/>
+      <c r="D153" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="44"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="45"/>
+      <c r="E153" s="35"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>8</v>
       </c>
-      <c r="B154" s="43" t="s">
+      <c r="B154" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="44"/>
-      <c r="D154" s="43" t="s">
+      <c r="C154" s="35"/>
+      <c r="D154" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="44"/>
-      <c r="H154" s="45"/>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45"/>
-      <c r="K154" s="45"/>
-      <c r="L154" s="45"/>
-      <c r="M154" s="45"/>
-      <c r="N154" s="45"/>
-      <c r="O154" s="45"/>
+      <c r="E154" s="35"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>10</v>
       </c>
-      <c r="B155" s="43" t="s">
+      <c r="B155" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="44"/>
-      <c r="D155" s="43" t="s">
+      <c r="C155" s="35"/>
+      <c r="D155" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="44"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45"/>
-      <c r="K155" s="45"/>
-      <c r="L155" s="45"/>
-      <c r="M155" s="45"/>
-      <c r="N155" s="45"/>
-      <c r="O155" s="45"/>
+      <c r="E155" s="35"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>11</v>
       </c>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="44"/>
-      <c r="D156" s="43" t="s">
+      <c r="C156" s="35"/>
+      <c r="D156" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="44"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="45"/>
-      <c r="M156" s="45"/>
-      <c r="N156" s="45"/>
-      <c r="O156" s="45"/>
+      <c r="E156" s="35"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>12</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="44"/>
-      <c r="D157" s="43" t="s">
+      <c r="C157" s="35"/>
+      <c r="D157" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="44"/>
-      <c r="H157" s="45"/>
-      <c r="I157" s="45"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="45"/>
-      <c r="L157" s="45"/>
-      <c r="M157" s="45"/>
-      <c r="N157" s="45"/>
-      <c r="O157" s="45"/>
+      <c r="E157" s="35"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="29"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>13</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="44"/>
-      <c r="D158" s="43" t="s">
+      <c r="C158" s="35"/>
+      <c r="D158" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="44"/>
+      <c r="E158" s="35"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>14</v>
       </c>
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="44"/>
-      <c r="D159" s="43" t="s">
+      <c r="C159" s="35"/>
+      <c r="D159" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="44"/>
+      <c r="E159" s="35"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>15</v>
       </c>
-      <c r="B160" s="43" t="s">
+      <c r="B160" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="44"/>
-      <c r="D160" s="43" t="s">
+      <c r="C160" s="35"/>
+      <c r="D160" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E160" s="44"/>
+      <c r="E160" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
     <mergeCell ref="H152:I152"/>
     <mergeCell ref="J152:K152"/>
     <mergeCell ref="L152:M152"/>
@@ -4036,233 +4285,22 @@
     <mergeCell ref="J134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="H92:O92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:E144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:E104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E74"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBA0CA-CE2C-AE4C-8B35-69054AAF7A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8C6E2-979B-2F48-AFDD-E0BD0C32D42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>EJECUTADO MANUALMENTE - NO BLOQUEA AL USUARIO</t>
+  </si>
+  <si>
+    <t>Cambiar texto a original - es error el nuevo nombre</t>
+  </si>
+  <si>
+    <t>No bloquea</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -779,74 +788,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1168,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,10 +1199,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1221,34 +1230,34 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1262,22 +1271,22 @@
       <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="32" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H6" s="26" t="s">
@@ -1464,46 +1473,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="H13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -1519,105 +1528,105 @@
       <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="E17" s="44"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="E18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
@@ -1636,10 +1645,10 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1654,16 +1663,16 @@
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1677,40 +1686,40 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31" t="s">
+      <c r="I34" s="51"/>
+      <c r="J34" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31" t="s">
+      <c r="K34" s="51"/>
+      <c r="L34" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31" t="s">
+      <c r="M34" s="51"/>
+      <c r="N34" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="31"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="32" t="s">
+      <c r="I35" s="50"/>
+      <c r="J35" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="32" t="s">
+      <c r="K35" s="50"/>
+      <c r="L35" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="32" t="s">
+      <c r="M35" s="50"/>
+      <c r="N35" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="33"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1910,56 +1919,56 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30" t="s">
+      <c r="M43" s="48"/>
+      <c r="N43" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="30"/>
+      <c r="O43" s="48"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -1975,97 +1984,97 @@
       <c r="E46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38" t="s">
+      <c r="C48" s="42"/>
+      <c r="D48" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
+      <c r="E48" s="44"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="34" t="s">
+      <c r="C49" s="46"/>
+      <c r="D49" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="35"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="34" t="s">
+      <c r="C50" s="46"/>
+      <c r="D50" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="46"/>
+      <c r="D51" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="34" t="s">
+      <c r="C52" s="46"/>
+      <c r="D52" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="35"/>
+      <c r="E52" s="46"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
@@ -2084,10 +2093,10 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2115,34 +2124,34 @@
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
     </row>
     <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31" t="s">
+      <c r="I64" s="51"/>
+      <c r="J64" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31" t="s">
+      <c r="K64" s="51"/>
+      <c r="L64" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31" t="s">
+      <c r="M64" s="51"/>
+      <c r="N64" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="31"/>
+      <c r="O64" s="51"/>
     </row>
     <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2156,22 +2165,22 @@
       <c r="E65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="H65" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="32" t="s">
+      <c r="I65" s="50"/>
+      <c r="J65" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="33"/>
-      <c r="L65" s="32" t="s">
+      <c r="K65" s="50"/>
+      <c r="L65" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="32" t="s">
+      <c r="M65" s="50"/>
+      <c r="N65" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O65" s="33"/>
+      <c r="O65" s="50"/>
     </row>
     <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H66" s="26" t="s">
@@ -2358,46 +2367,46 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="H73" s="30" t="s">
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="H73" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30" t="s">
+      <c r="I73" s="48"/>
+      <c r="J73" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30" t="s">
+      <c r="K73" s="48"/>
+      <c r="L73" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30" t="s">
+      <c r="M73" s="48"/>
+      <c r="N73" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="30"/>
+      <c r="O73" s="48"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -2413,105 +2422,110 @@
       <c r="E75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="38" t="s">
+      <c r="C77" s="42"/>
+      <c r="D77" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="39"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
+      <c r="E77" s="44"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="34" t="s">
+      <c r="C78" s="46"/>
+      <c r="D78" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="35"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
+      <c r="E78" s="46"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>2</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="34" t="s">
+      <c r="C79" s="46"/>
+      <c r="D79" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="35"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>3</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="34" t="s">
+      <c r="C80" s="46"/>
+      <c r="D80" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="35"/>
+      <c r="E80" s="46"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="34" t="s">
+      <c r="C81" s="46"/>
+      <c r="D81" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="35"/>
+      <c r="E81" s="46"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
@@ -2535,10 +2549,10 @@
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="41"/>
+      <c r="E91" s="32"/>
     </row>
     <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2553,16 +2567,16 @@
       <c r="D92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
     </row>
     <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -2576,40 +2590,40 @@
       <c r="E93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31" t="s">
+      <c r="I93" s="51"/>
+      <c r="J93" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31" t="s">
+      <c r="K93" s="51"/>
+      <c r="L93" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31" t="s">
+      <c r="M93" s="51"/>
+      <c r="N93" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="31"/>
+      <c r="O93" s="51"/>
     </row>
     <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="32" t="s">
+      <c r="H94" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="32" t="s">
+      <c r="I94" s="50"/>
+      <c r="J94" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="33"/>
-      <c r="L94" s="32" t="s">
+      <c r="K94" s="50"/>
+      <c r="L94" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="33"/>
-      <c r="N94" s="32" t="s">
+      <c r="M94" s="50"/>
+      <c r="N94" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O94" s="33"/>
+      <c r="O94" s="50"/>
     </row>
     <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -2883,15 +2897,15 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
       <c r="H103" s="27" t="s">
         <v>68</v>
       </c>
@@ -2918,11 +2932,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
       <c r="H104" s="27" t="s">
         <v>68</v>
       </c>
@@ -3017,18 +3031,18 @@
       <c r="A107" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="38" t="s">
+      <c r="C107" s="42"/>
+      <c r="D107" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="39"/>
-      <c r="H107" s="50" t="s">
+      <c r="E107" s="44"/>
+      <c r="H107" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I107" s="51" t="s">
+      <c r="I107" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J107" s="27" t="s">
@@ -3054,187 +3068,189 @@
       <c r="A108" s="24">
         <v>1</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="34" t="s">
+      <c r="C108" s="46"/>
+      <c r="D108" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="35"/>
+      <c r="E108" s="46"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>2</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="34" t="s">
+      <c r="C109" s="46"/>
+      <c r="D109" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="35"/>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>3</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="34" t="s">
+      <c r="C110" s="46"/>
+      <c r="D110" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="35"/>
-      <c r="H110" s="30" t="s">
+      <c r="E110" s="46"/>
+      <c r="H110" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30" t="s">
+      <c r="I110" s="48"/>
+      <c r="J110" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30" t="s">
+      <c r="K110" s="48"/>
+      <c r="L110" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M110" s="30"/>
-      <c r="N110" s="30" t="s">
+      <c r="M110" s="48"/>
+      <c r="N110" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="30"/>
+      <c r="O110" s="48"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>4</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="34" t="s">
+      <c r="C111" s="46"/>
+      <c r="D111" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="35"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
+      <c r="E111" s="46"/>
+      <c r="H111" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>6</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="34" t="s">
+      <c r="C112" s="46"/>
+      <c r="D112" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="35"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
+      <c r="E112" s="46"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="47"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>7</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="34" t="s">
+      <c r="C113" s="46"/>
+      <c r="D113" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="35"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
+      <c r="E113" s="46"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="47"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>8</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="34" t="s">
+      <c r="C114" s="46"/>
+      <c r="D114" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E114" s="35"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
+      <c r="E114" s="46"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="47"/>
+      <c r="O114" s="47"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>10</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="34" t="s">
+      <c r="C115" s="46"/>
+      <c r="D115" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="35"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
+      <c r="E115" s="46"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="47"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>11</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="34" t="s">
+      <c r="C116" s="46"/>
+      <c r="D116" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="35"/>
+      <c r="E116" s="46"/>
     </row>
     <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>12</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="34" t="s">
+      <c r="C117" s="46"/>
+      <c r="D117" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="35"/>
+      <c r="E117" s="46"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
@@ -3253,10 +3269,10 @@
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D131" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E131" s="41"/>
+      <c r="E131" s="32"/>
     </row>
     <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3271,16 +3287,16 @@
       <c r="D132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="31" t="s">
+      <c r="H132" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-      <c r="N132" s="31"/>
-      <c r="O132" s="31"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="51"/>
+      <c r="M132" s="51"/>
+      <c r="N132" s="51"/>
+      <c r="O132" s="51"/>
     </row>
     <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -3294,40 +3310,40 @@
       <c r="E133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="31" t="s">
+      <c r="H133" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31" t="s">
+      <c r="I133" s="51"/>
+      <c r="J133" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31" t="s">
+      <c r="K133" s="51"/>
+      <c r="L133" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31" t="s">
+      <c r="M133" s="51"/>
+      <c r="N133" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="31"/>
+      <c r="O133" s="51"/>
     </row>
     <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I134" s="33"/>
-      <c r="J134" s="32" t="s">
+      <c r="I134" s="50"/>
+      <c r="J134" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K134" s="33"/>
-      <c r="L134" s="32" t="s">
+      <c r="K134" s="50"/>
+      <c r="L134" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M134" s="33"/>
-      <c r="N134" s="32" t="s">
+      <c r="M134" s="50"/>
+      <c r="N134" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="33"/>
+      <c r="O134" s="50"/>
     </row>
     <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
@@ -3366,7 +3382,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H136" s="27" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I136" s="28" t="s">
         <v>69</v>
@@ -3599,15 +3615,15 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="46"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="37"/>
       <c r="H143" s="27" t="s">
         <v>68</v>
       </c>
@@ -3634,11 +3650,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="49"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="40"/>
       <c r="H144" s="27" t="s">
         <v>68</v>
       </c>
@@ -3733,14 +3749,14 @@
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="37"/>
-      <c r="D147" s="38" t="s">
+      <c r="C147" s="42"/>
+      <c r="D147" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="39"/>
+      <c r="E147" s="44"/>
       <c r="H147" s="27" t="s">
         <v>68</v>
       </c>
@@ -3770,14 +3786,14 @@
       <c r="A148" s="24">
         <v>1</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="34" t="s">
+      <c r="C148" s="46"/>
+      <c r="D148" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="35"/>
+      <c r="E148" s="46"/>
       <c r="H148" s="27" t="s">
         <v>68</v>
       </c>
@@ -3807,14 +3823,14 @@
       <c r="A149" s="24">
         <v>2</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="34" t="s">
+      <c r="C149" s="46"/>
+      <c r="D149" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="35"/>
+      <c r="E149" s="46"/>
       <c r="H149" s="27" t="s">
         <v>68</v>
       </c>
@@ -3844,331 +3860,318 @@
       <c r="A150" s="24">
         <v>3</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="34" t="s">
+      <c r="C150" s="46"/>
+      <c r="D150" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="35"/>
+      <c r="E150" s="46"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>4</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="35"/>
-      <c r="D151" s="34" t="s">
+      <c r="C151" s="46"/>
+      <c r="D151" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="35"/>
+      <c r="E151" s="46"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>6</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="35"/>
-      <c r="D152" s="34" t="s">
+      <c r="C152" s="46"/>
+      <c r="D152" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="35"/>
-      <c r="H152" s="30" t="s">
+      <c r="E152" s="46"/>
+      <c r="H152" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="30"/>
-      <c r="J152" s="30" t="s">
+      <c r="I152" s="48"/>
+      <c r="J152" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K152" s="30"/>
-      <c r="L152" s="30" t="s">
+      <c r="K152" s="48"/>
+      <c r="L152" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M152" s="30"/>
-      <c r="N152" s="30" t="s">
+      <c r="M152" s="48"/>
+      <c r="N152" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="30"/>
+      <c r="O152" s="48"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>7</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="34" t="s">
+      <c r="C153" s="46"/>
+      <c r="D153" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="35"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
+      <c r="E153" s="46"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>8</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="34" t="s">
+      <c r="C154" s="46"/>
+      <c r="D154" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="35"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
+      <c r="E154" s="46"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="47"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="47"/>
+      <c r="L154" s="47"/>
+      <c r="M154" s="47"/>
+      <c r="N154" s="47"/>
+      <c r="O154" s="47"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>10</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="34" t="s">
+      <c r="C155" s="46"/>
+      <c r="D155" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="35"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
+      <c r="E155" s="46"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="47"/>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>11</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="34" t="s">
+      <c r="C156" s="46"/>
+      <c r="D156" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="35"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
+      <c r="E156" s="46"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="47"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="47"/>
+      <c r="M156" s="47"/>
+      <c r="N156" s="47"/>
+      <c r="O156" s="47"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>12</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="34" t="s">
+      <c r="C157" s="46"/>
+      <c r="D157" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="35"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
+      <c r="E157" s="46"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="47"/>
+      <c r="K157" s="47"/>
+      <c r="L157" s="47"/>
+      <c r="M157" s="47"/>
+      <c r="N157" s="47"/>
+      <c r="O157" s="47"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>13</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="34" t="s">
+      <c r="C158" s="46"/>
+      <c r="D158" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="35"/>
+      <c r="E158" s="46"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>14</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="34" t="s">
+      <c r="C159" s="46"/>
+      <c r="D159" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="35"/>
+      <c r="E159" s="46"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>15</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="35"/>
-      <c r="D160" s="34" t="s">
+      <c r="C160" s="46"/>
+      <c r="D160" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E160" s="35"/>
+      <c r="E160" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E74"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:E104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:E144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="H132:O132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
@@ -4186,121 +4189,134 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="H92:O92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="H132:O132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8C6E2-979B-2F48-AFDD-E0BD0C32D42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357CF8E-1947-BD42-B61C-B6D0B2A84EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC" sheetId="1" r:id="rId1"/>
+    <sheet name="TC Ejecucion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="106">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -294,13 +295,73 @@
   </si>
   <si>
     <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome, v107</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA environment, https://demo.opencart.com/ </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Logging in: User is not blocked after three failed attempts</t>
+  </si>
+  <si>
+    <t>Failling to use correct password/email three times doesn´t block the user</t>
+  </si>
+  <si>
+    <t>A message showing the user is blocked is expected, and also the user is blocked in backend</t>
+  </si>
+  <si>
+    <t>The Page allows the user to keep trying</t>
+  </si>
+  <si>
+    <t>Critical severity - The block functionality does not work</t>
+  </si>
+  <si>
+    <t>Affected User Story: PE-54</t>
+  </si>
+  <si>
+    <t>*Doesn´t matter if it´s the email or the password, doesn´t block the user after three failed attempts at either of them</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,8 +456,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +500,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -698,6 +780,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -706,7 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -794,6 +900,39 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -824,38 +963,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1177,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,10 +1327,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1230,34 +1358,34 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="51"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1271,22 +1399,22 @@
       <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="49" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="49" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="50"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H6" s="26" t="s">
@@ -1473,46 +1601,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="H13" s="48" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="H13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="48"/>
+      <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -1528,105 +1656,105 @@
       <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="E17" s="41"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="E18" s="37"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
@@ -1645,10 +1773,10 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="32"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1663,16 +1791,16 @@
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1686,40 +1814,40 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51" t="s">
+      <c r="I34" s="33"/>
+      <c r="J34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51" t="s">
+      <c r="K34" s="33"/>
+      <c r="L34" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51" t="s">
+      <c r="M34" s="33"/>
+      <c r="N34" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="51"/>
+      <c r="O34" s="33"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="49" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="50"/>
-      <c r="L35" s="49" t="s">
+      <c r="K35" s="35"/>
+      <c r="L35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="50"/>
-      <c r="N35" s="49" t="s">
+      <c r="M35" s="35"/>
+      <c r="N35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="50"/>
+      <c r="O35" s="35"/>
     </row>
     <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1919,56 +2047,56 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48" t="s">
+      <c r="I43" s="32"/>
+      <c r="J43" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48" t="s">
+      <c r="K43" s="32"/>
+      <c r="L43" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="48"/>
+      <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -1984,97 +2112,97 @@
       <c r="E46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
+      <c r="E48" s="41"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="45" t="s">
+      <c r="C49" s="37"/>
+      <c r="D49" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="45" t="s">
+      <c r="C50" s="37"/>
+      <c r="D50" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="45" t="s">
+      <c r="C51" s="37"/>
+      <c r="D51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="45" t="s">
+      <c r="C52" s="37"/>
+      <c r="D52" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="37"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
@@ -2093,10 +2221,10 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="32"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2124,34 +2252,34 @@
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="51" t="s">
+      <c r="H63" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
     </row>
     <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="51" t="s">
+      <c r="H64" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51" t="s">
+      <c r="I64" s="33"/>
+      <c r="J64" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51" t="s">
+      <c r="K64" s="33"/>
+      <c r="L64" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51" t="s">
+      <c r="M64" s="33"/>
+      <c r="N64" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="51"/>
+      <c r="O64" s="33"/>
     </row>
     <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2165,22 +2293,22 @@
       <c r="E65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H65" s="49" t="s">
+      <c r="H65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="49" t="s">
+      <c r="I65" s="35"/>
+      <c r="J65" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="50"/>
-      <c r="L65" s="49" t="s">
+      <c r="K65" s="35"/>
+      <c r="L65" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="50"/>
-      <c r="N65" s="49" t="s">
+      <c r="M65" s="35"/>
+      <c r="N65" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O65" s="50"/>
+      <c r="O65" s="35"/>
     </row>
     <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H66" s="26" t="s">
@@ -2367,46 +2495,46 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37"/>
-      <c r="H73" s="48" t="s">
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="48"/>
+      <c r="H73" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48" t="s">
+      <c r="I73" s="32"/>
+      <c r="J73" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48" t="s">
+      <c r="K73" s="32"/>
+      <c r="L73" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48" t="s">
+      <c r="M73" s="32"/>
+      <c r="N73" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="48"/>
+      <c r="O73" s="32"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="51"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -2422,105 +2550,105 @@
       <c r="E75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="43" t="s">
+      <c r="C77" s="39"/>
+      <c r="D77" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="44"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
+      <c r="E77" s="41"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="45" t="s">
+      <c r="C78" s="37"/>
+      <c r="D78" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
+      <c r="E78" s="37"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>2</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="45" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="46"/>
+      <c r="E79" s="37"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>3</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="45" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="45" t="s">
+      <c r="C81" s="37"/>
+      <c r="D81" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="46"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
@@ -2549,10 +2677,10 @@
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="32"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2567,16 +2695,16 @@
       <c r="D92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="51" t="s">
+      <c r="H92" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="51"/>
-      <c r="O92" s="51"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
     </row>
     <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -2590,40 +2718,40 @@
       <c r="E93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="51" t="s">
+      <c r="H93" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51" t="s">
+      <c r="I93" s="33"/>
+      <c r="J93" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51" t="s">
+      <c r="K93" s="33"/>
+      <c r="L93" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51" t="s">
+      <c r="M93" s="33"/>
+      <c r="N93" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="51"/>
+      <c r="O93" s="33"/>
     </row>
     <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="49" t="s">
+      <c r="H94" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="49" t="s">
+      <c r="I94" s="35"/>
+      <c r="J94" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="50"/>
-      <c r="L94" s="49" t="s">
+      <c r="K94" s="35"/>
+      <c r="L94" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="50"/>
-      <c r="N94" s="49" t="s">
+      <c r="M94" s="35"/>
+      <c r="N94" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O94" s="50"/>
+      <c r="O94" s="35"/>
     </row>
     <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -2897,15 +3025,15 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="48"/>
       <c r="H103" s="27" t="s">
         <v>68</v>
       </c>
@@ -2932,11 +3060,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="40"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="51"/>
       <c r="H104" s="27" t="s">
         <v>68</v>
       </c>
@@ -3031,14 +3159,14 @@
       <c r="A107" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43" t="s">
+      <c r="C107" s="39"/>
+      <c r="D107" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="44"/>
+      <c r="E107" s="41"/>
       <c r="H107" s="29" t="s">
         <v>81</v>
       </c>
@@ -3068,189 +3196,189 @@
       <c r="A108" s="24">
         <v>1</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="46"/>
-      <c r="D108" s="45" t="s">
+      <c r="C108" s="37"/>
+      <c r="D108" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="46"/>
+      <c r="E108" s="37"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>2</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="45" t="s">
+      <c r="C109" s="37"/>
+      <c r="D109" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="46"/>
+      <c r="E109" s="37"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>3</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="45" t="s">
+      <c r="C110" s="37"/>
+      <c r="D110" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="46"/>
-      <c r="H110" s="48" t="s">
+      <c r="E110" s="37"/>
+      <c r="H110" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48" t="s">
+      <c r="I110" s="32"/>
+      <c r="J110" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48" t="s">
+      <c r="K110" s="32"/>
+      <c r="L110" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M110" s="48"/>
-      <c r="N110" s="48" t="s">
+      <c r="M110" s="32"/>
+      <c r="N110" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="48"/>
+      <c r="O110" s="32"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>4</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C111" s="46"/>
-      <c r="D111" s="45" t="s">
+      <c r="C111" s="37"/>
+      <c r="D111" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="H111" s="47" t="s">
+      <c r="E111" s="37"/>
+      <c r="H111" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-      <c r="L111" s="47"/>
-      <c r="M111" s="47"/>
-      <c r="N111" s="47"/>
-      <c r="O111" s="47"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="31"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>6</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="46"/>
-      <c r="D112" s="45" t="s">
+      <c r="C112" s="37"/>
+      <c r="D112" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="46"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="47"/>
-      <c r="O112" s="47"/>
+      <c r="E112" s="37"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="31"/>
+      <c r="O112" s="31"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>7</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="45" t="s">
+      <c r="C113" s="37"/>
+      <c r="D113" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="47"/>
-      <c r="L113" s="47"/>
-      <c r="M113" s="47"/>
-      <c r="N113" s="47"/>
-      <c r="O113" s="47"/>
+      <c r="E113" s="37"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="31"/>
+      <c r="O113" s="31"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>8</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="46"/>
-      <c r="D114" s="45" t="s">
+      <c r="C114" s="37"/>
+      <c r="D114" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E114" s="46"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="47"/>
-      <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
-      <c r="N114" s="47"/>
-      <c r="O114" s="47"/>
+      <c r="E114" s="37"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31"/>
+      <c r="O114" s="31"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>10</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="46"/>
-      <c r="D115" s="45" t="s">
+      <c r="C115" s="37"/>
+      <c r="D115" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="47"/>
-      <c r="K115" s="47"/>
-      <c r="L115" s="47"/>
-      <c r="M115" s="47"/>
-      <c r="N115" s="47"/>
-      <c r="O115" s="47"/>
+      <c r="E115" s="37"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="31"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>11</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="45" t="s">
+      <c r="C116" s="37"/>
+      <c r="D116" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="46"/>
+      <c r="E116" s="37"/>
     </row>
     <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>12</v>
       </c>
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="45" t="s">
+      <c r="C117" s="37"/>
+      <c r="D117" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="46"/>
+      <c r="E117" s="37"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
@@ -3269,10 +3397,10 @@
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E131" s="32"/>
+      <c r="E131" s="43"/>
     </row>
     <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3287,16 +3415,16 @@
       <c r="D132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="51" t="s">
+      <c r="H132" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I132" s="51"/>
-      <c r="J132" s="51"/>
-      <c r="K132" s="51"/>
-      <c r="L132" s="51"/>
-      <c r="M132" s="51"/>
-      <c r="N132" s="51"/>
-      <c r="O132" s="51"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
     </row>
     <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -3310,40 +3438,40 @@
       <c r="E133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="51" t="s">
+      <c r="H133" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="51"/>
-      <c r="J133" s="51" t="s">
+      <c r="I133" s="33"/>
+      <c r="J133" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K133" s="51"/>
-      <c r="L133" s="51" t="s">
+      <c r="K133" s="33"/>
+      <c r="L133" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="51"/>
-      <c r="N133" s="51" t="s">
+      <c r="M133" s="33"/>
+      <c r="N133" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="51"/>
+      <c r="O133" s="33"/>
     </row>
     <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="49" t="s">
+      <c r="H134" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I134" s="50"/>
-      <c r="J134" s="49" t="s">
+      <c r="I134" s="35"/>
+      <c r="J134" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K134" s="50"/>
-      <c r="L134" s="49" t="s">
+      <c r="K134" s="35"/>
+      <c r="L134" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M134" s="50"/>
-      <c r="N134" s="49" t="s">
+      <c r="M134" s="35"/>
+      <c r="N134" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="50"/>
+      <c r="O134" s="35"/>
     </row>
     <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
@@ -3615,15 +3743,15 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="37"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="48"/>
       <c r="H143" s="27" t="s">
         <v>68</v>
       </c>
@@ -3650,11 +3778,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="34"/>
-      <c r="B144" s="38"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="40"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="51"/>
       <c r="H144" s="27" t="s">
         <v>68</v>
       </c>
@@ -3749,14 +3877,14 @@
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="41" t="s">
+      <c r="B147" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43" t="s">
+      <c r="C147" s="39"/>
+      <c r="D147" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="44"/>
+      <c r="E147" s="41"/>
       <c r="H147" s="27" t="s">
         <v>68</v>
       </c>
@@ -3786,14 +3914,14 @@
       <c r="A148" s="24">
         <v>1</v>
       </c>
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="46"/>
-      <c r="D148" s="45" t="s">
+      <c r="C148" s="37"/>
+      <c r="D148" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="46"/>
+      <c r="E148" s="37"/>
       <c r="H148" s="27" t="s">
         <v>68</v>
       </c>
@@ -3823,14 +3951,14 @@
       <c r="A149" s="24">
         <v>2</v>
       </c>
-      <c r="B149" s="45" t="s">
+      <c r="B149" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="46"/>
-      <c r="D149" s="45" t="s">
+      <c r="C149" s="37"/>
+      <c r="D149" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="46"/>
+      <c r="E149" s="37"/>
       <c r="H149" s="27" t="s">
         <v>68</v>
       </c>
@@ -3860,219 +3988,430 @@
       <c r="A150" s="24">
         <v>3</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="46"/>
-      <c r="D150" s="45" t="s">
+      <c r="C150" s="37"/>
+      <c r="D150" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="46"/>
+      <c r="E150" s="37"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>4</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B151" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="46"/>
-      <c r="D151" s="45" t="s">
+      <c r="C151" s="37"/>
+      <c r="D151" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="46"/>
+      <c r="E151" s="37"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>6</v>
       </c>
-      <c r="B152" s="45" t="s">
+      <c r="B152" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="46"/>
-      <c r="D152" s="45" t="s">
+      <c r="C152" s="37"/>
+      <c r="D152" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="46"/>
-      <c r="H152" s="48" t="s">
+      <c r="E152" s="37"/>
+      <c r="H152" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="48"/>
-      <c r="J152" s="48" t="s">
+      <c r="I152" s="32"/>
+      <c r="J152" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K152" s="48"/>
-      <c r="L152" s="48" t="s">
+      <c r="K152" s="32"/>
+      <c r="L152" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M152" s="48"/>
-      <c r="N152" s="48" t="s">
+      <c r="M152" s="32"/>
+      <c r="N152" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="48"/>
+      <c r="O152" s="32"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>7</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="46"/>
-      <c r="D153" s="45" t="s">
+      <c r="C153" s="37"/>
+      <c r="D153" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="46"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="47"/>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
+      <c r="E153" s="37"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
+      <c r="L153" s="31"/>
+      <c r="M153" s="31"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="31"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>8</v>
       </c>
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="46"/>
-      <c r="D154" s="45" t="s">
+      <c r="C154" s="37"/>
+      <c r="D154" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="46"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="47"/>
-      <c r="K154" s="47"/>
-      <c r="L154" s="47"/>
-      <c r="M154" s="47"/>
-      <c r="N154" s="47"/>
-      <c r="O154" s="47"/>
+      <c r="E154" s="37"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
+      <c r="L154" s="31"/>
+      <c r="M154" s="31"/>
+      <c r="N154" s="31"/>
+      <c r="O154" s="31"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>10</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B155" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="46"/>
-      <c r="D155" s="45" t="s">
+      <c r="C155" s="37"/>
+      <c r="D155" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="46"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="47"/>
-      <c r="K155" s="47"/>
-      <c r="L155" s="47"/>
-      <c r="M155" s="47"/>
-      <c r="N155" s="47"/>
-      <c r="O155" s="47"/>
+      <c r="E155" s="37"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
+      <c r="L155" s="31"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="31"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>11</v>
       </c>
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="46"/>
-      <c r="D156" s="45" t="s">
+      <c r="C156" s="37"/>
+      <c r="D156" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="46"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="47"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="47"/>
-      <c r="M156" s="47"/>
-      <c r="N156" s="47"/>
-      <c r="O156" s="47"/>
+      <c r="E156" s="37"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>12</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="46"/>
-      <c r="D157" s="45" t="s">
+      <c r="C157" s="37"/>
+      <c r="D157" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="46"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="47"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
-      <c r="M157" s="47"/>
-      <c r="N157" s="47"/>
-      <c r="O157" s="47"/>
+      <c r="E157" s="37"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="31"/>
+      <c r="L157" s="31"/>
+      <c r="M157" s="31"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="31"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>13</v>
       </c>
-      <c r="B158" s="45" t="s">
+      <c r="B158" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="46"/>
-      <c r="D158" s="45" t="s">
+      <c r="C158" s="37"/>
+      <c r="D158" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="46"/>
+      <c r="E158" s="37"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>14</v>
       </c>
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="46"/>
-      <c r="D159" s="45" t="s">
+      <c r="C159" s="37"/>
+      <c r="D159" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="46"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>15</v>
       </c>
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="46"/>
-      <c r="D160" s="45" t="s">
+      <c r="C160" s="37"/>
+      <c r="D160" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E160" s="46"/>
+      <c r="E160" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
     <mergeCell ref="H152:I152"/>
     <mergeCell ref="J152:K152"/>
     <mergeCell ref="L152:M152"/>
@@ -4090,233 +4429,229 @@
     <mergeCell ref="J134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="H92:O92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:E144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:E104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E74"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A597243-06F4-124E-8D22-06FA251C3CC3}">
+  <dimension ref="B2:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="58"/>
+      <c r="C7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="59"/>
+      <c r="C8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="54"/>
+      <c r="C9" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B30" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases/TC_02.xlsx
+++ b/test_cases/TC_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357CF8E-1947-BD42-B61C-B6D0B2A84EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A58FA-ADB9-704D-B8CA-A36E217B67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7C00064C-7D41-E145-9E56-3EB1D58B45A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t>EJECUTADO MANUALMENTE - NO BLOQUEA AL USUARIO</t>
   </si>
   <si>
-    <t>Cambiar texto a original - es error el nuevo nombre</t>
-  </si>
-  <si>
     <t>No bloquea</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>*Doesn´t matter if it´s the email or the password, doesn´t block the user after three failed attempts at either of them</t>
+  </si>
+  <si>
+    <t>Documentar este caso porque no se puede ejecutar</t>
   </si>
 </sst>
 </file>
@@ -900,69 +900,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -984,6 +921,69 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8BCC20-7BA4-1C4D-84DA-D138A53BEDBC}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:C117"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1314,7 @@
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1327,10 +1327,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1358,34 +1358,34 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1399,22 +1399,22 @@
       <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="62"/>
+      <c r="J5" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="35"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H6" s="26" t="s">
@@ -1601,46 +1601,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="H13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32" t="s">
+      <c r="I13" s="60"/>
+      <c r="J13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="K13" s="60"/>
+      <c r="L13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
+      <c r="M13" s="60"/>
+      <c r="N13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="32"/>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -1656,105 +1656,105 @@
       <c r="E15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="E17" s="56"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="E18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
@@ -1773,10 +1773,10 @@
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1791,16 +1791,16 @@
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1814,40 +1814,40 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33" t="s">
+      <c r="I34" s="63"/>
+      <c r="J34" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33" t="s">
+      <c r="K34" s="63"/>
+      <c r="L34" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33" t="s">
+      <c r="M34" s="63"/>
+      <c r="N34" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="63"/>
     </row>
     <row r="35" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="34" t="s">
+      <c r="I35" s="62"/>
+      <c r="J35" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="34" t="s">
+      <c r="K35" s="62"/>
+      <c r="L35" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="34" t="s">
+      <c r="M35" s="62"/>
+      <c r="N35" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="35"/>
+      <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -2047,56 +2047,56 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32" t="s">
+      <c r="K43" s="60"/>
+      <c r="L43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32" t="s">
+      <c r="M43" s="60"/>
+      <c r="N43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="32"/>
+      <c r="O43" s="60"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -2112,97 +2112,97 @@
       <c r="E46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40" t="s">
+      <c r="C48" s="54"/>
+      <c r="D48" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="E48" s="56"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="58"/>
+      <c r="D49" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="37"/>
+      <c r="E49" s="58"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="37"/>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="36" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="37"/>
+      <c r="E51" s="58"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="36" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="37"/>
+      <c r="E52" s="58"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
@@ -2221,10 +2221,10 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2252,34 +2252,34 @@
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
     </row>
     <row r="64" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33" t="s">
+      <c r="I64" s="63"/>
+      <c r="J64" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33" t="s">
+      <c r="K64" s="63"/>
+      <c r="L64" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33" t="s">
+      <c r="M64" s="63"/>
+      <c r="N64" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="33"/>
+      <c r="O64" s="63"/>
     </row>
     <row r="65" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2293,22 +2293,22 @@
       <c r="E65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="34" t="s">
+      <c r="I65" s="62"/>
+      <c r="J65" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="35"/>
-      <c r="L65" s="34" t="s">
+      <c r="K65" s="62"/>
+      <c r="L65" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="35"/>
-      <c r="N65" s="34" t="s">
+      <c r="M65" s="62"/>
+      <c r="N65" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O65" s="35"/>
+      <c r="O65" s="62"/>
     </row>
     <row r="66" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H66" s="26" t="s">
@@ -2495,46 +2495,46 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="48"/>
-      <c r="H73" s="32" t="s">
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="H73" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32" t="s">
+      <c r="I73" s="60"/>
+      <c r="J73" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32" t="s">
+      <c r="K73" s="60"/>
+      <c r="L73" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32" t="s">
+      <c r="M73" s="60"/>
+      <c r="N73" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="32"/>
+      <c r="O73" s="60"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="51"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="59"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -2550,110 +2550,105 @@
       <c r="E75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="59"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="40" t="s">
+      <c r="C77" s="54"/>
+      <c r="D77" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="41"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
+      <c r="E77" s="56"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="36" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
+      <c r="E78" s="58"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>2</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="36" t="s">
+      <c r="C79" s="58"/>
+      <c r="D79" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="37"/>
+      <c r="E79" s="58"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>3</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="37"/>
+      <c r="E80" s="58"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="36" t="s">
+      <c r="C81" s="58"/>
+      <c r="D81" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="37"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
-        <v>83</v>
-      </c>
+      <c r="E81" s="58"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
@@ -2677,10 +2672,10 @@
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="43"/>
+      <c r="E91" s="44"/>
     </row>
     <row r="92" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2695,16 +2690,16 @@
       <c r="D92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="63"/>
     </row>
     <row r="93" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -2718,40 +2713,40 @@
       <c r="E93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33" t="s">
+      <c r="I93" s="63"/>
+      <c r="J93" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33" t="s">
+      <c r="K93" s="63"/>
+      <c r="L93" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33" t="s">
+      <c r="M93" s="63"/>
+      <c r="N93" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="33"/>
+      <c r="O93" s="63"/>
     </row>
     <row r="94" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="34" t="s">
+      <c r="H94" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="35"/>
-      <c r="J94" s="34" t="s">
+      <c r="I94" s="62"/>
+      <c r="J94" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="35"/>
-      <c r="L94" s="34" t="s">
+      <c r="K94" s="62"/>
+      <c r="L94" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="35"/>
-      <c r="N94" s="34" t="s">
+      <c r="M94" s="62"/>
+      <c r="N94" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O94" s="35"/>
+      <c r="O94" s="62"/>
     </row>
     <row r="95" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -3025,15 +3020,15 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="49"/>
       <c r="H103" s="27" t="s">
         <v>68</v>
       </c>
@@ -3060,11 +3055,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="51"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="52"/>
       <c r="H104" s="27" t="s">
         <v>68</v>
       </c>
@@ -3159,14 +3154,14 @@
       <c r="A107" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="39"/>
-      <c r="D107" s="40" t="s">
+      <c r="C107" s="54"/>
+      <c r="D107" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="41"/>
+      <c r="E107" s="56"/>
       <c r="H107" s="29" t="s">
         <v>81</v>
       </c>
@@ -3196,189 +3191,189 @@
       <c r="A108" s="24">
         <v>1</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="36" t="s">
+      <c r="C108" s="58"/>
+      <c r="D108" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="37"/>
+      <c r="E108" s="58"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>2</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="36" t="s">
+      <c r="C109" s="58"/>
+      <c r="D109" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="37"/>
+      <c r="E109" s="58"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>3</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="36" t="s">
+      <c r="C110" s="58"/>
+      <c r="D110" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="37"/>
-      <c r="H110" s="32" t="s">
+      <c r="E110" s="58"/>
+      <c r="H110" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32" t="s">
+      <c r="I110" s="60"/>
+      <c r="J110" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32" t="s">
+      <c r="K110" s="60"/>
+      <c r="L110" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32" t="s">
+      <c r="M110" s="60"/>
+      <c r="N110" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O110" s="32"/>
+      <c r="O110" s="60"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>4</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="36" t="s">
+      <c r="C111" s="58"/>
+      <c r="D111" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="37"/>
-      <c r="H111" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="31"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
+      <c r="E111" s="58"/>
+      <c r="H111" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>6</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="36" t="s">
+      <c r="C112" s="58"/>
+      <c r="D112" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="31"/>
-      <c r="O112" s="31"/>
+      <c r="E112" s="58"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>7</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="36" t="s">
+      <c r="C113" s="58"/>
+      <c r="D113" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="37"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
+      <c r="E113" s="58"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="59"/>
+      <c r="L113" s="59"/>
+      <c r="M113" s="59"/>
+      <c r="N113" s="59"/>
+      <c r="O113" s="59"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>8</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="37"/>
-      <c r="D114" s="36" t="s">
+      <c r="C114" s="58"/>
+      <c r="D114" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E114" s="37"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
+      <c r="E114" s="58"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="59"/>
+      <c r="O114" s="59"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>10</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="37"/>
-      <c r="D115" s="36" t="s">
+      <c r="C115" s="58"/>
+      <c r="D115" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="37"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
+      <c r="E115" s="58"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="59"/>
+      <c r="K115" s="59"/>
+      <c r="L115" s="59"/>
+      <c r="M115" s="59"/>
+      <c r="N115" s="59"/>
+      <c r="O115" s="59"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>11</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="36" t="s">
+      <c r="C116" s="58"/>
+      <c r="D116" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="37"/>
+      <c r="E116" s="58"/>
     </row>
     <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>12</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="36" t="s">
+      <c r="C117" s="58"/>
+      <c r="D117" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="37"/>
+      <c r="E117" s="58"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
@@ -3397,10 +3392,10 @@
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="42" t="s">
+      <c r="D131" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E131" s="43"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3415,16 +3410,16 @@
       <c r="D132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="33" t="s">
+      <c r="H132" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33"/>
-      <c r="M132" s="33"/>
-      <c r="N132" s="33"/>
-      <c r="O132" s="33"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="63"/>
+      <c r="L132" s="63"/>
+      <c r="M132" s="63"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="63"/>
     </row>
     <row r="133" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -3438,40 +3433,40 @@
       <c r="E133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33" t="s">
+      <c r="I133" s="63"/>
+      <c r="J133" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K133" s="33"/>
-      <c r="L133" s="33" t="s">
+      <c r="K133" s="63"/>
+      <c r="L133" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="33"/>
-      <c r="N133" s="33" t="s">
+      <c r="M133" s="63"/>
+      <c r="N133" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="33"/>
+      <c r="O133" s="63"/>
     </row>
     <row r="134" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="34" t="s">
+      <c r="H134" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I134" s="35"/>
-      <c r="J134" s="34" t="s">
+      <c r="I134" s="62"/>
+      <c r="J134" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K134" s="35"/>
-      <c r="L134" s="34" t="s">
+      <c r="K134" s="62"/>
+      <c r="L134" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M134" s="35"/>
-      <c r="N134" s="34" t="s">
+      <c r="M134" s="62"/>
+      <c r="N134" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="35"/>
+      <c r="O134" s="62"/>
     </row>
     <row r="135" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
@@ -3482,7 +3477,9 @@
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="E135" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="H135" s="26" t="s">
         <v>66</v>
       </c>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H136" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I136" s="28" t="s">
         <v>69</v>
@@ -3743,15 +3740,15 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="44" t="s">
+      <c r="A143" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="49"/>
       <c r="H143" s="27" t="s">
         <v>68</v>
       </c>
@@ -3778,11 +3775,11 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="45"/>
-      <c r="B144" s="49"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="51"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="52"/>
       <c r="H144" s="27" t="s">
         <v>68</v>
       </c>
@@ -3877,14 +3874,14 @@
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="40" t="s">
+      <c r="C147" s="54"/>
+      <c r="D147" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="41"/>
+      <c r="E147" s="56"/>
       <c r="H147" s="27" t="s">
         <v>68</v>
       </c>
@@ -3914,14 +3911,14 @@
       <c r="A148" s="24">
         <v>1</v>
       </c>
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="37"/>
-      <c r="D148" s="36" t="s">
+      <c r="C148" s="58"/>
+      <c r="D148" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="37"/>
+      <c r="E148" s="58"/>
       <c r="H148" s="27" t="s">
         <v>68</v>
       </c>
@@ -3951,14 +3948,14 @@
       <c r="A149" s="24">
         <v>2</v>
       </c>
-      <c r="B149" s="36" t="s">
+      <c r="B149" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="36" t="s">
+      <c r="C149" s="58"/>
+      <c r="D149" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="37"/>
+      <c r="E149" s="58"/>
       <c r="H149" s="27" t="s">
         <v>68</v>
       </c>
@@ -3988,331 +3985,318 @@
       <c r="A150" s="24">
         <v>3</v>
       </c>
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="36" t="s">
+      <c r="C150" s="58"/>
+      <c r="D150" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="37"/>
+      <c r="E150" s="58"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>4</v>
       </c>
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="36" t="s">
+      <c r="C151" s="58"/>
+      <c r="D151" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="37"/>
+      <c r="E151" s="58"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>6</v>
       </c>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="37"/>
-      <c r="D152" s="36" t="s">
+      <c r="C152" s="58"/>
+      <c r="D152" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="37"/>
-      <c r="H152" s="32" t="s">
+      <c r="E152" s="58"/>
+      <c r="H152" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="32"/>
-      <c r="J152" s="32" t="s">
+      <c r="I152" s="60"/>
+      <c r="J152" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="K152" s="32"/>
-      <c r="L152" s="32" t="s">
+      <c r="K152" s="60"/>
+      <c r="L152" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M152" s="32"/>
-      <c r="N152" s="32" t="s">
+      <c r="M152" s="60"/>
+      <c r="N152" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O152" s="32"/>
+      <c r="O152" s="60"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>7</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="36" t="s">
+      <c r="C153" s="58"/>
+      <c r="D153" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="37"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="31"/>
-      <c r="M153" s="31"/>
-      <c r="N153" s="31"/>
-      <c r="O153" s="31"/>
+      <c r="E153" s="58"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
+      <c r="L153" s="59"/>
+      <c r="M153" s="59"/>
+      <c r="N153" s="59"/>
+      <c r="O153" s="59"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>8</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="37"/>
-      <c r="D154" s="36" t="s">
+      <c r="C154" s="58"/>
+      <c r="D154" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="37"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
-      <c r="L154" s="31"/>
-      <c r="M154" s="31"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="31"/>
+      <c r="E154" s="58"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="59"/>
+      <c r="N154" s="59"/>
+      <c r="O154" s="59"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>10</v>
       </c>
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="37"/>
-      <c r="D155" s="36" t="s">
+      <c r="C155" s="58"/>
+      <c r="D155" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="37"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
+      <c r="E155" s="58"/>
+      <c r="H155" s="59"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="59"/>
+      <c r="L155" s="59"/>
+      <c r="M155" s="59"/>
+      <c r="N155" s="59"/>
+      <c r="O155" s="59"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>11</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="36" t="s">
+      <c r="C156" s="58"/>
+      <c r="D156" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="37"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="31"/>
-      <c r="M156" s="31"/>
-      <c r="N156" s="31"/>
-      <c r="O156" s="31"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E156" s="58"/>
+      <c r="H156" s="59"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="59"/>
+      <c r="K156" s="59"/>
+      <c r="L156" s="59"/>
+      <c r="M156" s="59"/>
+      <c r="N156" s="59"/>
+      <c r="O156" s="59"/>
+    </row>
+    <row r="157" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>12</v>
       </c>
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="36" t="s">
+      <c r="C157" s="58"/>
+      <c r="D157" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="37"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="31"/>
-      <c r="M157" s="31"/>
-      <c r="N157" s="31"/>
-      <c r="O157" s="31"/>
+      <c r="E157" s="58"/>
+      <c r="H157" s="59"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="59"/>
+      <c r="K157" s="59"/>
+      <c r="L157" s="59"/>
+      <c r="M157" s="59"/>
+      <c r="N157" s="59"/>
+      <c r="O157" s="59"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>13</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="36" t="s">
+      <c r="C158" s="58"/>
+      <c r="D158" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="37"/>
+      <c r="E158" s="58"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>14</v>
       </c>
-      <c r="B159" s="36" t="s">
+      <c r="B159" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="36" t="s">
+      <c r="C159" s="58"/>
+      <c r="D159" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="37"/>
+      <c r="E159" s="58"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>15</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="36" t="s">
+      <c r="C160" s="58"/>
+      <c r="D160" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E160" s="37"/>
+      <c r="E160" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E74"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:E104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:E144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="H132:O132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
@@ -4330,121 +4314,134 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="H92:O92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="H132:O132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:E144"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:E104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E74"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4454,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A597243-06F4-124E-8D22-06FA251C3CC3}">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4465,179 +4462,179 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C4" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="C9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="58"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
-      <c r="C7" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C19" s="34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="61" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C21" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="57" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="61" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C26" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B30" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
